--- a/biology/Médecine/1114_en_santé_et_médecine/1114_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1114_en_santé_et_médecine/1114_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1114_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1114_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1114 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1114_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1114_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Arnaud Ier d'Araux, évêque d'Oloron, fonde en Béarn, sur le chemin de Compostelle, un hôpital de pèlerins dont il remet la charge aux  frères de Saint-Jean de Jérusalem et qui donnera son nom à l'actuelle commune de L'Hôpital-d'Orion[1],[2].
-Gaston IV, vicomte de Béarn, crée un hôpital de pèlerins  à Mifaget, sur la route de Compostelle par le Somport[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Arnaud Ier d'Araux, évêque d'Oloron, fonde en Béarn, sur le chemin de Compostelle, un hôpital de pèlerins dont il remet la charge aux  frères de Saint-Jean de Jérusalem et qui donnera son nom à l'actuelle commune de L'Hôpital-d'Orion,.
+Gaston IV, vicomte de Béarn, crée un hôpital de pèlerins  à Mifaget, sur la route de Compostelle par le Somport.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1114_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1114_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Un certain Goschon meurt au prieuré de Béré malgré les soins que, depuis la Bretagne, il serait allé chercher à Montpellier[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un certain Goschon meurt au prieuré de Béré malgré les soins que, depuis la Bretagne, il serait allé chercher à Montpellier.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1114_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1114_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1113-1114 : en collaboration avec Rusticus Pisanus, Johannes Afflacius (scn), élève de Constantin l'Africain, achève le livre de son maître sur la chirurgie[5],[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1113-1114 : en collaboration avec Rusticus Pisanus, Johannes Afflacius (scn), élève de Constantin l'Africain, achève le livre de son maître sur la chirurgie,.</t>
         </is>
       </c>
     </row>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1114_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1114_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,10 +620,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>v. 1044-1045 – v. 1113-1114 : fl. Ibn Atharudi, médecin irakien, auteur d'un Sharh mushkil Da'wat al-atibba, commentaire du « Banquet des médecins » d'Ibn Butlan[7].
-v. 1114-1133 : fl. Guillaume, médecin de l'abbaye  Saint-Serge d'Angers[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>v. 1044-1045 – v. 1113-1114 : fl. Ibn Atharudi, médecin irakien, auteur d'un Sharh mushkil Da'wat al-atibba, commentaire du « Banquet des médecins » d'Ibn Butlan.
+v. 1114-1133 : fl. Guillaume, médecin de l'abbaye  Saint-Serge d'Angers.</t>
         </is>
       </c>
     </row>
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1114_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1114_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -633,9 +653,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Vers 1114 : Gérard de Crémone (mort vers 1187)[9], écrivain italien, traducteur de l'arabe en latin de divers ouvrages de médecine parmi lesquels il faut compter le Traité pour Mansour[10] de Rhazès, l'Al-Tasrif d'Aboulcassis et le Canon d'Avicenne[11].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vers 1114 : Gérard de Crémone (mort vers 1187), écrivain italien, traducteur de l'arabe en latin de divers ouvrages de médecine parmi lesquels il faut compter le Traité pour Mansour de Rhazès, l'Al-Tasrif d'Aboulcassis et le Canon d'Avicenne.</t>
         </is>
       </c>
     </row>
@@ -645,7 +667,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1114_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1114_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -663,9 +685,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Vassili le Guérisseur (né à une date inconnue), guide des bogomiles, brûlé à Constantinople[12].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vassili le Guérisseur (né à une date inconnue), guide des bogomiles, brûlé à Constantinople.</t>
         </is>
       </c>
     </row>
